--- a/input/static_data/cost/season_16/player_cost_GW14.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW14.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L2" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="3">
@@ -255,37 +255,37 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L5" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="6">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="14">
@@ -749,37 +749,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="19">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L19" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="20">
@@ -1015,37 +1015,37 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="26">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L26" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4600000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="34">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1433,37 +1433,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L36" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="37">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="46">
@@ -1813,37 +1813,37 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L46" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="47">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="50">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="52">
@@ -2193,37 +2193,37 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="57">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L65" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="66">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="74">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L80" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="81">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="94">
@@ -3789,37 +3789,37 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L98" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="99">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L127" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="128">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5157,37 +5157,37 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L134" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="135">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="154">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L156" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="157">
@@ -6069,37 +6069,37 @@
         <v>157.0</v>
       </c>
       <c r="B158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="159">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L164" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L168" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="169">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L176" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="180">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L184" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="185">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L195" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="201">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="207">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L208" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="209">
@@ -8121,37 +8121,37 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L212" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="213">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L221" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L222" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="225">
@@ -9071,37 +9071,37 @@
         <v>236.0</v>
       </c>
       <c r="B237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="238">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L243" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="244">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L265" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="269">
@@ -10363,37 +10363,37 @@
         <v>270.0</v>
       </c>
       <c r="B271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="272">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L272" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="273">
@@ -10439,37 +10439,37 @@
         <v>272.0</v>
       </c>
       <c r="B273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L273" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="274">
@@ -11503,37 +11503,37 @@
         <v>300.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L301" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="302">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L305" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="306">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>5100000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="310">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="311">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L314" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L315" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L316" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="317">
@@ -12263,37 +12263,37 @@
         <v>320.0</v>
       </c>
       <c r="B321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="322">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="C331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="D331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="E331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="F331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="G331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="H331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="I331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="J331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="K331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="L331" t="n">
-        <v>1.04E7</v>
+        <v>1.05E7</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="334">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="337">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="342">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L351" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="352">
@@ -13441,37 +13441,37 @@
         <v>351.0</v>
       </c>
       <c r="B352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="353">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5800000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L356" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7700000.0</v>
+        <v>8000000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L389" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="390">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L397" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7500000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15417,37 +15417,37 @@
         <v>403.0</v>
       </c>
       <c r="B404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L404" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="405">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="411">
@@ -15759,37 +15759,37 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L413" t="n">
-        <v>5000000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="414">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="417">
@@ -15911,37 +15911,37 @@
         <v>416.0</v>
       </c>
       <c r="B417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L417" t="n">
-        <v>7300000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="418">
@@ -16101,37 +16101,37 @@
         <v>421.0</v>
       </c>
       <c r="B422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="423">
@@ -16177,37 +16177,37 @@
         <v>423.0</v>
       </c>
       <c r="B424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L424" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="425">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8400000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.19E7</v>
+        <v>1.17E7</v>
       </c>
     </row>
     <row r="430">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="431">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17203,37 +17203,37 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L451" t="n">
-        <v>4200000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="452">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="459">
@@ -17697,37 +17697,37 @@
         <v>463.0</v>
       </c>
       <c r="B464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L464" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="465">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L466" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="467">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L473" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="474">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L484" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8600000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19065,37 +19065,37 @@
         <v>499.0</v>
       </c>
       <c r="B500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L500" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="501">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L505" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="506">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="511">
@@ -19483,37 +19483,37 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="512">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19635,37 +19635,37 @@
         <v>514.0</v>
       </c>
       <c r="B515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="516">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="518">
@@ -19787,37 +19787,37 @@
         <v>518.0</v>
       </c>
       <c r="B519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L519" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="520">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L524" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="525">
@@ -20433,37 +20433,37 @@
         <v>535.0</v>
       </c>
       <c r="B536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="537">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L542" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="543">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8500000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6400000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="576">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8500000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22067,37 +22067,37 @@
         <v>578.0</v>
       </c>
       <c r="B579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L579" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="580">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6900000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
     </row>
     <row r="583">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.16E7</v>
+        <v>1.12E7</v>
       </c>
     </row>
     <row r="585">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L603" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="604">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L606" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.1E7</v>
+        <v>1.12E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="C618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="D618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="E618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="F618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="G618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="H618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="I618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="J618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="K618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="L618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
     </row>
     <row r="619">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="621">
